--- a/src/main/resources/com/config/나랑노랑_테이블정의.xlsx
+++ b/src/main/resources/com/config/나랑노랑_테이블정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KWONDO~1\DOWNLO~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaeyen\git\NarangNorang\src\main\resources\com\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05F90E6-D3AC-46C4-98F1-C0BB481E63F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC4BA2-C7A6-48F2-845E-BED01F68E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FEBEA036-6C71-4209-BF10-49EF14142D6B}"/>
+    <workbookView xWindow="9870" yWindow="450" windowWidth="16080" windowHeight="15150" activeTab="2" xr2:uid="{FEBEA036-6C71-4209-BF10-49EF14142D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="회원" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="테스트결과" sheetId="4" r:id="rId5"/>
     <sheet name="노랑이" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="162">
   <si>
     <t>엔티티타입명</t>
   </si>
@@ -658,6 +656,14 @@
   </si>
   <si>
     <t>DEFAULT 0 NOT NULL</t>
+  </si>
+  <si>
+    <t>확인여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,9 +745,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,7 +769,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1057,30 +1069,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1088,18 +1100,18 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1107,7 +1119,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1148,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -1163,7 +1175,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -1190,7 +1202,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -1215,7 +1227,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -1233,16 +1245,16 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1267,7 +1279,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -1292,7 +1304,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1307,7 +1319,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1332,7 +1344,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1357,7 +1369,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -1382,7 +1394,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1397,7 +1409,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>10</v>
       </c>
@@ -1422,7 +1434,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>11</v>
       </c>
@@ -1447,7 +1459,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>12</v>
       </c>
@@ -1472,7 +1484,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>13</v>
       </c>
@@ -1497,7 +1509,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>14</v>
       </c>
@@ -1522,7 +1534,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>15</v>
       </c>
@@ -1564,47 +1576,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1BF344-75A3-4620-8A76-0FD614F74D2B}">
   <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1648,7 +1660,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -1667,7 +1679,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1686,7 +1698,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -1705,7 +1717,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1724,7 +1736,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -1743,7 +1755,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1762,7 +1774,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -1781,7 +1793,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1800,7 +1812,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -1819,7 +1831,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1828,35 +1840,35 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -1900,7 +1912,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>2</v>
       </c>
@@ -1919,7 +1931,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>3</v>
       </c>
@@ -1938,7 +1950,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>4</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>5</v>
       </c>
@@ -1980,7 +1992,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>6</v>
       </c>
@@ -1999,7 +2011,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>7</v>
       </c>
@@ -2018,7 +2030,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2027,35 +2039,35 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>1</v>
       </c>
@@ -2099,7 +2111,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>2</v>
       </c>
@@ -2118,7 +2130,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>4</v>
       </c>
@@ -2186,50 +2198,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD41C7F0-0CCB-4B61-96CF-49E6A4A50C15}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -2273,7 +2287,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -2292,7 +2306,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -2311,7 +2325,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -2330,7 +2344,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -2349,7 +2363,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -2368,7 +2382,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -2386,6 +2400,113 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2396,6 +2517,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2405,52 +2527,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2476,7 +2598,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -2500,7 +2622,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -2522,7 +2644,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -2544,7 +2666,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -2566,7 +2688,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2578,41 +2700,41 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2638,7 +2760,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -2662,7 +2784,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -2688,7 +2810,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -2714,7 +2836,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -2732,13 +2854,13 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2750,41 +2872,41 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2810,7 +2932,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -2834,7 +2956,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -2860,7 +2982,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -2882,7 +3004,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>4</v>
       </c>
@@ -2908,7 +3030,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -2934,7 +3056,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>6</v>
       </c>
@@ -2960,7 +3082,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>7</v>
       </c>
@@ -2986,7 +3108,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -3012,7 +3134,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>9</v>
       </c>
@@ -3040,11 +3162,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H3"/>
@@ -3053,6 +3170,11 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:H11"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3065,46 +3187,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3127,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -3148,7 +3270,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -3171,7 +3293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -3189,7 +3311,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -3207,7 +3329,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -3244,46 +3366,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -3327,7 +3449,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -3350,7 +3472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -3369,7 +3491,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -3387,12 +3509,12 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -3410,40 +3532,40 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3466,7 +3588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -3487,7 +3609,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -3510,7 +3632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>3</v>
       </c>
@@ -3529,7 +3651,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>4</v>
       </c>
@@ -3547,40 +3669,40 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>1</v>
       </c>
@@ -3624,7 +3746,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>2</v>
       </c>
@@ -3643,7 +3765,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -3664,6 +3786,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H3"/>
@@ -3672,13 +3801,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/com/config/나랑노랑_테이블정의.xlsx
+++ b/src/main/resources/com/config/나랑노랑_테이블정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaeyen\git\NarangNorang\src\main\resources\com\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC4BA2-C7A6-48F2-845E-BED01F68E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F80ECA-8DFB-426E-A004-9438A7D54B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9870" yWindow="450" windowWidth="16080" windowHeight="15150" activeTab="2" xr2:uid="{FEBEA036-6C71-4209-BF10-49EF14142D6B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="163">
   <si>
     <t>엔티티타입명</t>
   </si>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>READ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0 NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +2205,7 @@
   <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2415,7 +2419,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -3162,6 +3166,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H3"/>
@@ -3170,11 +3179,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:H11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3786,13 +3790,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H3"/>
@@ -3801,6 +3798,13 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
